--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1 (2)" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="173">
   <si>
     <t>Номер проверки</t>
   </si>
@@ -86,13 +87,466 @@
   </si>
   <si>
     <t>Отказы</t>
+  </si>
+  <si>
+    <t>Критичность/Серьезность (Severity):</t>
+  </si>
+  <si>
+    <t>Окружение</t>
+  </si>
+  <si>
+    <t>Запуск приложения</t>
+  </si>
+  <si>
+    <t>Страница авторизации</t>
+  </si>
+  <si>
+    <t>Вход с валидными данными</t>
+  </si>
+  <si>
+    <t>Вход с невалидным паролем</t>
+  </si>
+  <si>
+    <t>Вход с невалидным логином</t>
+  </si>
+  <si>
+    <t>Выход из приложения на страницу авторизации</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Главная страница</t>
+  </si>
+  <si>
+    <t>Отображение главной страницы</t>
+  </si>
+  <si>
+    <t>Отображение новостей на главной странице</t>
+  </si>
+  <si>
+    <t>Сворачивание/разворачивание новостей</t>
+  </si>
+  <si>
+    <t>Страница новостей</t>
+  </si>
+  <si>
+    <t>Отображение страницы новостей</t>
+  </si>
+  <si>
+    <t>Фильтр по категориям, без даты</t>
+  </si>
+  <si>
+    <t>Фильтр по датам, без категории</t>
+  </si>
+  <si>
+    <t>Фильтр по датам и категориям</t>
+  </si>
+  <si>
+    <t>Фильтр с чекбоксом активные</t>
+  </si>
+  <si>
+    <t>Фильтр с чекбоксом неактивные</t>
+  </si>
+  <si>
+    <t>Фильтр с выключенными чекбоксами</t>
+  </si>
+  <si>
+    <t>Удаление новости</t>
+  </si>
+  <si>
+    <t>Сворачивание/разворачивание описания новости</t>
+  </si>
+  <si>
+    <t>Предел ввода в стороке title при создании новости</t>
+  </si>
+  <si>
+    <t>Предел ввода в стороке description при создании новости</t>
+  </si>
+  <si>
+    <t>Страница о приложении</t>
+  </si>
+  <si>
+    <t>На странице имеются данные о версии и ссылки на соглащение о использовании и политики конфенденциальности</t>
+  </si>
+  <si>
+    <t>Переход по страницам</t>
+  </si>
+  <si>
+    <t>Переход со страницы на страницу происходит корректно, дальнейшие переходы доступны</t>
+  </si>
+  <si>
+    <t>Возврат на предыдущую страницу происходит без ошибок</t>
+  </si>
+  <si>
+    <t>Взаимодействие с браузером и иными веб-ресурсами</t>
+  </si>
+  <si>
+    <t>Cсылки на документы</t>
+  </si>
+  <si>
+    <t>Переход на внешние ссылки проходит корректно, ссылки открываются в браузере поумолчанию. (Страница "о приложении")</t>
+  </si>
+  <si>
+    <t>Неактивные элементы отображаются серым</t>
+  </si>
+  <si>
+    <t>На всех страницах</t>
+  </si>
+  <si>
+    <t>Подраздел</t>
+  </si>
+  <si>
+    <t>Блокирующая</t>
+  </si>
+  <si>
+    <t>Вход в приложение с использованием валидных данных.</t>
+  </si>
+  <si>
+    <t>Ввод логина</t>
+  </si>
+  <si>
+    <t>Ввод пароля</t>
+  </si>
+  <si>
+    <t>Подтверждение</t>
+  </si>
+  <si>
+    <t>Авторизация прошла успешна, открыта главная страница "Вхосписе"</t>
+  </si>
+  <si>
+    <t>Критичная</t>
+  </si>
+  <si>
+    <t>Вход в приложение с использованием валидного логина и невалидного пароля.</t>
+  </si>
+  <si>
+    <t>Авторизация не прошла, появилось всплывающее окно о ошибке</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Эмулятор: Android Studio Koala | 2024.1.1 Patch 1
+    Профиль виртуального устройства: Android API 29
+    Операционная система хоста: Windows 10 22H2 19045.5011</t>
+  </si>
+  <si>
+    <t>Вход в приложение с использованием невалидного логина и валидного пароля.</t>
+  </si>
+  <si>
+    <t>Выход из приложения авторизированного пользователя  обратно на страницу авторизации.</t>
+  </si>
+  <si>
+    <t>Логаут из приложения</t>
+  </si>
+  <si>
+    <t>Логаут прошел успешно, открыта страница авторизации</t>
+  </si>
+  <si>
+    <t>Главная страница отображается при входе  в приложение и при переходе с другой страницы</t>
+  </si>
+  <si>
+    <t>Авторизация в приложении</t>
+  </si>
+  <si>
+    <t>Возврат на главную страницу</t>
+  </si>
+  <si>
+    <t>Переход на вкладку "Новости"</t>
+  </si>
+  <si>
+    <t>Переход на вкладку "О приложении"</t>
+  </si>
+  <si>
+    <t>Переход на вкладку "Любовь это"</t>
+  </si>
+  <si>
+    <t>Главная страница отображается при всех вариантах перехода на неё</t>
+  </si>
+  <si>
+    <t>Вход на главную страницу</t>
+  </si>
+  <si>
+    <t>Свернуть и развернуть все новости</t>
+  </si>
+  <si>
+    <t>Свернуть и развернуть описание конкретной новости</t>
+  </si>
+  <si>
+    <t>На главной странице видны новости текущего дня</t>
+  </si>
+  <si>
+    <t>На главной странице работает сворачивание всех новостей, работает сворачивание описания  новости</t>
+  </si>
+  <si>
+    <t>Страница новостей отображается при переходе с другой страницы</t>
+  </si>
+  <si>
+    <t>Страница новостей отображается при всех вариантах перехода на неё</t>
+  </si>
+  <si>
+    <t>Страница новостей отображается при всех вариантах перехода на неё, однако не срабатывает переход со страницы новостей на вкладку "О приложении"</t>
+  </si>
+  <si>
+    <t>Фильтр новости по категории, без указания даты выдает результат только по указанной категории</t>
+  </si>
+  <si>
+    <t>Переход на фильтр новостей</t>
+  </si>
+  <si>
+    <t>Выбор категории</t>
+  </si>
+  <si>
+    <t>Выбор даты</t>
+  </si>
+  <si>
+    <t>Фильтр новости по дате, без указания категории выдает результат только по указанному временному диапазону</t>
+  </si>
+  <si>
+    <t>Фильтр новости по категории и даты выдает результат только в соответствии с указанными параметрами</t>
+  </si>
+  <si>
+    <t>Выбор даты и категории</t>
+  </si>
+  <si>
+    <t>Выдаются новости только указанной категории или уведомление о том что новости не найдены</t>
+  </si>
+  <si>
+    <t>Выдаются новости только указанного временного диапазона или уведомление о том что новости не найдены</t>
+  </si>
+  <si>
+    <t>Выдаются новости только указанных параметров или уведомление о том что новости не найдены</t>
+  </si>
+  <si>
+    <t>Фильтр новости по чекбоксу "Активные" выдает результат только в соответствии с указанными параметрами</t>
+  </si>
+  <si>
+    <t>Выбор чекбокса "Активные"</t>
+  </si>
+  <si>
+    <t>Выдаются только актуальные новости или уведомление о том что новости не найдены</t>
+  </si>
+  <si>
+    <t>Фильтр новости по чекбоксу "Неактивные" выдает результат только в соответствии с указанными параметрами</t>
+  </si>
+  <si>
+    <t>Выбор чекбокса "Неактивные"</t>
+  </si>
+  <si>
+    <t>Выдаются только завершенные новости или уведомление о том что новости не найдены</t>
+  </si>
+  <si>
+    <t>Выключение чекбоксов "Активные" и  "Неактивные"</t>
+  </si>
+  <si>
+    <t>Фильтр новости с выключенными чекбоксами выдает что результат не найден</t>
+  </si>
+  <si>
+    <t>Выдаются  уведомление о том что новости не найдены</t>
+  </si>
+  <si>
+    <t>Выдаются  все новости, аналогично включенным обоим чекбоксам</t>
+  </si>
+  <si>
+    <t>Выявлен Баг</t>
+  </si>
+  <si>
+    <t>Значительная</t>
+  </si>
+  <si>
+    <t>Незначительная</t>
+  </si>
+  <si>
+    <t>Создание новости с заполнением всех полей</t>
+  </si>
+  <si>
+    <t>Создание новости с заполнением всех полей валидными данными</t>
+  </si>
+  <si>
+    <t>Переход на создание новости</t>
+  </si>
+  <si>
+    <t>Ввод описания</t>
+  </si>
+  <si>
+    <t>Ввод даты</t>
+  </si>
+  <si>
+    <t>Ввод времени</t>
+  </si>
+  <si>
+    <t>Ввод заголовка</t>
+  </si>
+  <si>
+    <t>Новость создана, отображается и содержимое соответствует введенным данным</t>
+  </si>
+  <si>
+    <t>Чекбокса "активный" включен</t>
+  </si>
+  <si>
+    <t>Выдается оповещающий символ об ошибке и сообщение что поле не может быть пустым</t>
+  </si>
+  <si>
+    <t>Создание новости с пропуском поля "Категория"</t>
+  </si>
+  <si>
+    <t>Создание новости с заполнением полей валидными данными и пропуском поля "Категория"</t>
+  </si>
+  <si>
+    <t>Создание новости с пропуском поля "Заголовок"</t>
+  </si>
+  <si>
+    <t>Создание новости с заполнением полей валидными данными и пропуском поля "Заголовок"</t>
+  </si>
+  <si>
+    <t>Создание новости с пропуском поля "Дата"</t>
+  </si>
+  <si>
+    <t>Создание новости с заполнением полей валидными данными и пропуском поля "Дата"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Создание новости с уже прошедшим значением поля "Дата" </t>
+  </si>
+  <si>
+    <t>Создание новости с заполнением полей валидными данными и уже прошедшим значением поля "Дата"</t>
+  </si>
+  <si>
+    <t>Ввод даты (Уже прошедший день)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ввод в поле "Дата" неактуального значения не доступен. </t>
+  </si>
+  <si>
+    <t>Создание новости с пропуском поля "Время"</t>
+  </si>
+  <si>
+    <t>Создание новости с заполнением полей валидными данными и пропуском поля "Время"</t>
+  </si>
+  <si>
+    <t>Создание новости с пропуском поля "Описание"</t>
+  </si>
+  <si>
+    <t>Создание новости с заполнением полей валидными данными и пропуском поля "Описание"</t>
+  </si>
+  <si>
+    <t>Создание новости с отключением чекбокса "активный"</t>
+  </si>
+  <si>
+    <t>Создание новости с заполнением полей валидными данными и отключением чекбокса "активный"</t>
+  </si>
+  <si>
+    <t>Чекбокса "активный" выключен</t>
+  </si>
+  <si>
+    <t>Чекбокс неактивен и недоступен для переключения в  положение выключено</t>
+  </si>
+  <si>
+    <t>Редактирование новости: поле "Категория"</t>
+  </si>
+  <si>
+    <t>Редактирование новости с изменением значения поля "Категория"</t>
+  </si>
+  <si>
+    <t>Переход на редактирование новости</t>
+  </si>
+  <si>
+    <t>Изменение категории</t>
+  </si>
+  <si>
+    <t>Сохранение новости</t>
+  </si>
+  <si>
+    <t>Новость сохранилась, категория изменилась</t>
+  </si>
+  <si>
+    <t>Редактирование новости: поле "Заголовок"</t>
+  </si>
+  <si>
+    <t>Убирание данных из поля заголовок</t>
+  </si>
+  <si>
+    <t>Внесение измененных данных в поле заголовок</t>
+  </si>
+  <si>
+    <t>Новость сохранилась, заголовок изменился. При пустом значении выдается оповещающий символ об ошибке и сообщение что поле не может быть пустым</t>
+  </si>
+  <si>
+    <t>Редактирование новости с изменением значения поля "Заголовок" (пустое значение и измененные данные)</t>
+  </si>
+  <si>
+    <t>Редактирование новости: поле "Дата"</t>
+  </si>
+  <si>
+    <t>Редактирование новости с изменением значения поля "Дата" (Уже прошедшая дата и измененная дата)</t>
+  </si>
+  <si>
+    <t>Изменение даты (прошедшая)</t>
+  </si>
+  <si>
+    <t>Изменение даты (измененная)</t>
+  </si>
+  <si>
+    <t>Новость сохранилась, дата изменилась.
+Выбрать уже прошедшую дату - невозможно</t>
+  </si>
+  <si>
+    <t>Редактирование новости: поле "Время"</t>
+  </si>
+  <si>
+    <t>Редактирование новости с изменением значения поля "Время" (Уже прошедшее время и измененное время)</t>
+  </si>
+  <si>
+    <t>Изменение времени (прошедшая)</t>
+  </si>
+  <si>
+    <t>Изменение времени (измененная)</t>
+  </si>
+  <si>
+    <t>Новость сохранилась.
+Получилось выбрать уже прошедшее время - чего быть не должно</t>
+  </si>
+  <si>
+    <t>Новость сохранилась.
+Выбрать уже прошедшую время - невозможно</t>
+  </si>
+  <si>
+    <t>Редактирование новости: поле "Описание"</t>
+  </si>
+  <si>
+    <t>Редактирование новости с изменением значения поля "Описание" (пустое значение и измененные данные)</t>
+  </si>
+  <si>
+    <t>Убирание данных из поля описание</t>
+  </si>
+  <si>
+    <t>Внесение измененных данных в поле описание</t>
+  </si>
+  <si>
+    <t>Новость сохранилась, описание изменилось. При пустом значении выдается оповещающий символ об ошибке и сообщение что поле не может быть пустым</t>
+  </si>
+  <si>
+    <t>Редактирование новости: Чекбокс "активный"</t>
+  </si>
+  <si>
+    <t>Редактирование новости с переключением чек-бокса активный</t>
+  </si>
+  <si>
+    <t>Переключение чекбокса</t>
+  </si>
+  <si>
+    <t>Новость сохранилась, статус  изменился на неактивная новость</t>
+  </si>
+  <si>
+    <t>Нажатие на удаление новости</t>
+  </si>
+  <si>
+    <t>Новость удалилась.
+В списке новостей - отсутствует</t>
+  </si>
+  <si>
+    <t>Страница редактирования новостей</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,8 +561,15 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -151,8 +612,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="58">
     <border>
       <left/>
       <right/>
@@ -279,11 +752,603 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -309,6 +1374,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -327,8 +1404,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -336,7 +1413,342 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -643,488 +2055,3864 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:K179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="3" width="25.28515625" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="67.28515625" customWidth="1"/>
+    <col min="7" max="7" width="31.28515625" customWidth="1"/>
+    <col min="8" max="8" width="56.28515625" customWidth="1"/>
+    <col min="9" max="10" width="18.42578125" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="27" thickBot="1">
+      <c r="A1" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="45" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="59">
+        <v>1</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="90" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="K2" s="50"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="60"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="38"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="60"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="38"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A5" s="61"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="57"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="50">
+        <v>2</v>
+      </c>
+      <c r="B6" s="63"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="K6" s="50"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="38"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="38"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="38"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="38"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A9" s="38"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="57"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="50">
+        <v>3</v>
+      </c>
+      <c r="B10" s="63"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="K10" s="50"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="38"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="38"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="38"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="38"/>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A13" s="38"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="38"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="59">
+        <v>4</v>
+      </c>
+      <c r="B14" s="63"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="79" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="80" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="81" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" s="82" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="J14" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="K14" s="83"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="60"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="78" t="s">
+        <v>61</v>
+      </c>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="85"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="60"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="78" t="s">
+        <v>62</v>
+      </c>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="85"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="60"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="78" t="s">
+        <v>63</v>
+      </c>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="85"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A18" s="61"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="106"/>
+      <c r="G18" s="106"/>
+      <c r="H18" s="107" t="s">
+        <v>71</v>
+      </c>
+      <c r="I18" s="106"/>
+      <c r="J18" s="106"/>
+      <c r="K18" s="108"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="59">
+        <v>5</v>
+      </c>
+      <c r="B19" s="63"/>
+      <c r="C19" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="124" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="80" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="81" t="s">
+        <v>73</v>
+      </c>
+      <c r="H19" s="114" t="s">
+        <v>74</v>
+      </c>
+      <c r="I19" s="81" t="s">
+        <v>79</v>
+      </c>
+      <c r="J19" s="81" t="s">
+        <v>79</v>
+      </c>
+      <c r="K19" s="115"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="60"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="125"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="113" t="s">
+        <v>76</v>
+      </c>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="116"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="60"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="125"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="113" t="s">
+        <v>75</v>
+      </c>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="116"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="60"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="125"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="113" t="s">
+        <v>77</v>
+      </c>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="116"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="60"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="125"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="113" t="s">
+        <v>75</v>
+      </c>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="116"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="60"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="125"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="113" t="s">
+        <v>78</v>
+      </c>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="116"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A25" s="61"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="126"/>
+      <c r="E25" s="87"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="117" t="s">
+        <v>75</v>
+      </c>
+      <c r="I25" s="88"/>
+      <c r="J25" s="88"/>
+      <c r="K25" s="118"/>
+    </row>
+    <row r="26" spans="1:11" ht="60.75" thickBot="1">
+      <c r="A26" s="119">
+        <v>10</v>
+      </c>
+      <c r="B26" s="63"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="109" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="110" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="111" t="s">
+        <v>68</v>
+      </c>
+      <c r="G26" s="111" t="s">
+        <v>83</v>
+      </c>
+      <c r="H26" s="110" t="s">
+        <v>80</v>
+      </c>
+      <c r="I26" s="111" t="s">
+        <v>83</v>
+      </c>
+      <c r="J26" s="111" t="s">
+        <v>83</v>
+      </c>
+      <c r="K26" s="112"/>
+    </row>
+    <row r="27" spans="1:11" ht="35.25" customHeight="1">
+      <c r="A27" s="59">
+        <v>11</v>
+      </c>
+      <c r="B27" s="63"/>
+      <c r="C27" s="74"/>
+      <c r="D27" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="G27" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="H27" s="82" t="s">
+        <v>80</v>
+      </c>
+      <c r="I27" s="91" t="s">
+        <v>84</v>
+      </c>
+      <c r="J27" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="K27" s="76"/>
+    </row>
+    <row r="28" spans="1:11" ht="30" customHeight="1">
+      <c r="A28" s="60"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="I28" s="92"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="37"/>
+    </row>
+    <row r="29" spans="1:11" ht="32.25" customHeight="1" thickBot="1">
+      <c r="A29" s="61"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="75"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="93" t="s">
+        <v>82</v>
+      </c>
+      <c r="I29" s="94"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="95"/>
+    </row>
+    <row r="30" spans="1:11" ht="34.5" customHeight="1">
+      <c r="A30" s="59">
+        <v>12</v>
+      </c>
+      <c r="B30" s="63"/>
+      <c r="C30" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="80" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="G30" s="81" t="s">
+        <v>85</v>
+      </c>
+      <c r="H30" s="114" t="s">
+        <v>74</v>
+      </c>
+      <c r="I30" s="81" t="s">
+        <v>87</v>
+      </c>
+      <c r="J30" s="81" t="s">
+        <v>86</v>
+      </c>
+      <c r="K30" s="83" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="21" customHeight="1">
+      <c r="A31" s="60"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="113" t="s">
+        <v>76</v>
+      </c>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="85"/>
+    </row>
+    <row r="32" spans="1:11" ht="27" customHeight="1">
+      <c r="A32" s="60"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="113" t="s">
+        <v>77</v>
+      </c>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="85"/>
+    </row>
+    <row r="33" spans="1:11" ht="24.75" customHeight="1">
+      <c r="A33" s="60"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="74"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="113" t="s">
+        <v>76</v>
+      </c>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="85"/>
+    </row>
+    <row r="34" spans="1:11" ht="29.25" customHeight="1">
+      <c r="A34" s="60"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="113" t="s">
+        <v>78</v>
+      </c>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="85"/>
+    </row>
+    <row r="35" spans="1:11" ht="22.5" customHeight="1" thickBot="1">
+      <c r="A35" s="61"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="74"/>
+      <c r="D35" s="69"/>
+      <c r="E35" s="105"/>
+      <c r="F35" s="106"/>
+      <c r="G35" s="106"/>
+      <c r="H35" s="120" t="s">
+        <v>76</v>
+      </c>
+      <c r="I35" s="106"/>
+      <c r="J35" s="106"/>
+      <c r="K35" s="108"/>
+    </row>
+    <row r="36" spans="1:11" ht="60" customHeight="1">
+      <c r="A36" s="59">
+        <v>13</v>
+      </c>
+      <c r="B36" s="63"/>
+      <c r="C36" s="74"/>
+      <c r="D36" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" s="80" t="s">
+        <v>109</v>
+      </c>
+      <c r="F36" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="G36" s="81" t="s">
+        <v>88</v>
+      </c>
+      <c r="H36" s="114" t="s">
+        <v>74</v>
+      </c>
+      <c r="I36" s="81" t="s">
+        <v>95</v>
+      </c>
+      <c r="J36" s="81" t="s">
+        <v>95</v>
+      </c>
+      <c r="K36" s="122"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="60"/>
+      <c r="B37" s="63"/>
+      <c r="C37" s="74"/>
+      <c r="D37" s="84"/>
+      <c r="E37" s="77"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="113" t="s">
+        <v>76</v>
+      </c>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="123"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="60"/>
+      <c r="B38" s="63"/>
+      <c r="C38" s="74"/>
+      <c r="D38" s="84"/>
+      <c r="E38" s="77"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="113" t="s">
+        <v>89</v>
+      </c>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="123"/>
+    </row>
+    <row r="39" spans="1:11" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A39" s="61"/>
+      <c r="B39" s="63"/>
+      <c r="C39" s="74"/>
+      <c r="D39" s="104"/>
+      <c r="E39" s="105"/>
+      <c r="F39" s="106"/>
+      <c r="G39" s="106"/>
+      <c r="H39" s="120" t="s">
+        <v>90</v>
+      </c>
+      <c r="I39" s="106"/>
+      <c r="J39" s="106"/>
+      <c r="K39" s="127"/>
+    </row>
+    <row r="40" spans="1:11" ht="30" customHeight="1">
+      <c r="A40" s="59">
+        <v>14</v>
+      </c>
+      <c r="B40" s="63"/>
+      <c r="C40" s="74"/>
+      <c r="D40" s="79" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" s="80" t="s">
+        <v>109</v>
+      </c>
+      <c r="F40" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="G40" s="81" t="s">
+        <v>92</v>
+      </c>
+      <c r="H40" s="114" t="s">
+        <v>74</v>
+      </c>
+      <c r="I40" s="81" t="s">
+        <v>96</v>
+      </c>
+      <c r="J40" s="81" t="s">
+        <v>96</v>
+      </c>
+      <c r="K40" s="115"/>
+    </row>
+    <row r="41" spans="1:11" ht="21.75" customHeight="1">
+      <c r="A41" s="60"/>
+      <c r="B41" s="63"/>
+      <c r="C41" s="74"/>
+      <c r="D41" s="84"/>
+      <c r="E41" s="77"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="113" t="s">
+        <v>76</v>
+      </c>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="116"/>
+    </row>
+    <row r="42" spans="1:11" ht="26.25" customHeight="1">
+      <c r="A42" s="60"/>
+      <c r="B42" s="63"/>
+      <c r="C42" s="74"/>
+      <c r="D42" s="84"/>
+      <c r="E42" s="77"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="113" t="s">
+        <v>89</v>
+      </c>
+      <c r="I42" s="28"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="116"/>
+    </row>
+    <row r="43" spans="1:11" ht="29.25" customHeight="1" thickBot="1">
+      <c r="A43" s="61"/>
+      <c r="B43" s="63"/>
+      <c r="C43" s="74"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="87"/>
+      <c r="F43" s="88"/>
+      <c r="G43" s="88"/>
+      <c r="H43" s="117" t="s">
+        <v>91</v>
+      </c>
+      <c r="I43" s="88"/>
+      <c r="J43" s="88"/>
+      <c r="K43" s="118"/>
+    </row>
+    <row r="44" spans="1:11" ht="33.75" customHeight="1">
+      <c r="A44" s="59">
+        <v>15</v>
+      </c>
+      <c r="B44" s="63"/>
+      <c r="C44" s="74"/>
+      <c r="D44" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="E44" s="80" t="s">
+        <v>109</v>
+      </c>
+      <c r="F44" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="G44" s="81" t="s">
+        <v>93</v>
+      </c>
+      <c r="H44" s="114" t="s">
+        <v>74</v>
+      </c>
+      <c r="I44" s="81" t="s">
+        <v>97</v>
+      </c>
+      <c r="J44" s="81" t="s">
+        <v>97</v>
+      </c>
+      <c r="K44" s="99"/>
+    </row>
+    <row r="45" spans="1:11" ht="27" customHeight="1">
+      <c r="A45" s="60"/>
+      <c r="B45" s="63"/>
+      <c r="C45" s="74"/>
+      <c r="D45" s="66"/>
+      <c r="E45" s="77"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="113" t="s">
+        <v>76</v>
+      </c>
+      <c r="I45" s="28"/>
+      <c r="J45" s="28"/>
+      <c r="K45" s="128"/>
+    </row>
+    <row r="46" spans="1:11" ht="24.75" customHeight="1">
+      <c r="A46" s="60"/>
+      <c r="B46" s="63"/>
+      <c r="C46" s="74"/>
+      <c r="D46" s="66"/>
+      <c r="E46" s="77"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="113" t="s">
+        <v>89</v>
+      </c>
+      <c r="I46" s="28"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="128"/>
+    </row>
+    <row r="47" spans="1:11" ht="25.5" customHeight="1" thickBot="1">
+      <c r="A47" s="61"/>
+      <c r="B47" s="63"/>
+      <c r="C47" s="74"/>
+      <c r="D47" s="67"/>
+      <c r="E47" s="87"/>
+      <c r="F47" s="88"/>
+      <c r="G47" s="88"/>
+      <c r="H47" s="117" t="s">
+        <v>94</v>
+      </c>
+      <c r="I47" s="88"/>
+      <c r="J47" s="88"/>
+      <c r="K47" s="101"/>
+    </row>
+    <row r="48" spans="1:11" ht="39.75" customHeight="1">
+      <c r="A48" s="59">
+        <v>16</v>
+      </c>
+      <c r="B48" s="63"/>
+      <c r="C48" s="74"/>
+      <c r="D48" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="E48" s="80" t="s">
+        <v>109</v>
+      </c>
+      <c r="F48" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="G48" s="81" t="s">
+        <v>98</v>
+      </c>
+      <c r="H48" s="114" t="s">
+        <v>74</v>
+      </c>
+      <c r="I48" s="81" t="s">
+        <v>100</v>
+      </c>
+      <c r="J48" s="81" t="s">
+        <v>100</v>
+      </c>
+      <c r="K48" s="99"/>
+    </row>
+    <row r="49" spans="1:11" ht="24.75" customHeight="1">
+      <c r="A49" s="60"/>
+      <c r="B49" s="63"/>
+      <c r="C49" s="74"/>
+      <c r="D49" s="66"/>
+      <c r="E49" s="77"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="113" t="s">
+        <v>76</v>
+      </c>
+      <c r="I49" s="28"/>
+      <c r="J49" s="28"/>
+      <c r="K49" s="128"/>
+    </row>
+    <row r="50" spans="1:11" ht="31.5" customHeight="1">
+      <c r="A50" s="60"/>
+      <c r="B50" s="63"/>
+      <c r="C50" s="74"/>
+      <c r="D50" s="66"/>
+      <c r="E50" s="77"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="113" t="s">
+        <v>89</v>
+      </c>
+      <c r="I50" s="28"/>
+      <c r="J50" s="28"/>
+      <c r="K50" s="128"/>
+    </row>
+    <row r="51" spans="1:11" ht="29.25" customHeight="1" thickBot="1">
+      <c r="A51" s="61"/>
+      <c r="B51" s="63"/>
+      <c r="C51" s="74"/>
+      <c r="D51" s="67"/>
+      <c r="E51" s="87"/>
+      <c r="F51" s="88"/>
+      <c r="G51" s="88"/>
+      <c r="H51" s="117" t="s">
+        <v>99</v>
+      </c>
+      <c r="I51" s="88"/>
+      <c r="J51" s="88"/>
+      <c r="K51" s="101"/>
+    </row>
+    <row r="52" spans="1:11" ht="35.25" customHeight="1">
+      <c r="A52" s="59">
+        <v>17</v>
+      </c>
+      <c r="B52" s="63"/>
+      <c r="C52" s="74"/>
+      <c r="D52" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="E52" s="80" t="s">
+        <v>109</v>
+      </c>
+      <c r="F52" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="G52" s="81" t="s">
+        <v>101</v>
+      </c>
+      <c r="H52" s="114" t="s">
+        <v>74</v>
+      </c>
+      <c r="I52" s="81" t="s">
+        <v>103</v>
+      </c>
+      <c r="J52" s="81" t="s">
+        <v>103</v>
+      </c>
+      <c r="K52" s="99"/>
+    </row>
+    <row r="53" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A53" s="60"/>
+      <c r="B53" s="63"/>
+      <c r="C53" s="74"/>
+      <c r="D53" s="66"/>
+      <c r="E53" s="77"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="113" t="s">
+        <v>76</v>
+      </c>
+      <c r="I53" s="28"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="128"/>
+    </row>
+    <row r="54" spans="1:11" ht="21.75" customHeight="1">
+      <c r="A54" s="60"/>
+      <c r="B54" s="63"/>
+      <c r="C54" s="74"/>
+      <c r="D54" s="66"/>
+      <c r="E54" s="77"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="113" t="s">
+        <v>89</v>
+      </c>
+      <c r="I54" s="28"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="128"/>
+    </row>
+    <row r="55" spans="1:11" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A55" s="61"/>
+      <c r="B55" s="63"/>
+      <c r="C55" s="74"/>
+      <c r="D55" s="67"/>
+      <c r="E55" s="87"/>
+      <c r="F55" s="88"/>
+      <c r="G55" s="88"/>
+      <c r="H55" s="117" t="s">
+        <v>102</v>
+      </c>
+      <c r="I55" s="88"/>
+      <c r="J55" s="88"/>
+      <c r="K55" s="101"/>
+    </row>
+    <row r="56" spans="1:11" ht="45" customHeight="1">
+      <c r="A56" s="59">
+        <v>18</v>
+      </c>
+      <c r="B56" s="63"/>
+      <c r="C56" s="74"/>
+      <c r="D56" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="E56" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="G56" s="81" t="s">
+        <v>105</v>
+      </c>
+      <c r="H56" s="114" t="s">
+        <v>74</v>
+      </c>
+      <c r="I56" s="81" t="s">
+        <v>107</v>
+      </c>
+      <c r="J56" s="81" t="s">
+        <v>106</v>
+      </c>
+      <c r="K56" s="129" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="60"/>
+      <c r="B57" s="63"/>
+      <c r="C57" s="74"/>
+      <c r="D57" s="66"/>
+      <c r="E57" s="77"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="113" t="s">
+        <v>76</v>
+      </c>
+      <c r="I57" s="28"/>
+      <c r="J57" s="28"/>
+      <c r="K57" s="130"/>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="60"/>
+      <c r="B58" s="63"/>
+      <c r="C58" s="74"/>
+      <c r="D58" s="66"/>
+      <c r="E58" s="77"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="113" t="s">
+        <v>89</v>
+      </c>
+      <c r="I58" s="28"/>
+      <c r="J58" s="28"/>
+      <c r="K58" s="130"/>
+    </row>
+    <row r="59" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A59" s="61"/>
+      <c r="B59" s="63"/>
+      <c r="C59" s="75"/>
+      <c r="D59" s="66"/>
+      <c r="E59" s="105"/>
+      <c r="F59" s="106"/>
+      <c r="G59" s="106"/>
+      <c r="H59" s="120" t="s">
+        <v>104</v>
+      </c>
+      <c r="I59" s="106"/>
+      <c r="J59" s="106"/>
+      <c r="K59" s="130"/>
+    </row>
+    <row r="60" spans="1:11" ht="90" customHeight="1">
+      <c r="A60" s="59">
+        <v>19</v>
+      </c>
+      <c r="B60" s="63"/>
+      <c r="C60" s="135" t="s">
+        <v>172</v>
+      </c>
+      <c r="D60" s="79" t="s">
+        <v>111</v>
+      </c>
+      <c r="E60" s="80" t="s">
+        <v>65</v>
+      </c>
+      <c r="F60" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="G60" s="81" t="s">
+        <v>112</v>
+      </c>
+      <c r="H60" s="114" t="s">
+        <v>74</v>
+      </c>
+      <c r="I60" s="81" t="s">
+        <v>118</v>
+      </c>
+      <c r="J60" s="81" t="s">
+        <v>118</v>
+      </c>
+      <c r="K60" s="115"/>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="60"/>
+      <c r="B61" s="63"/>
+      <c r="C61" s="103"/>
+      <c r="D61" s="84"/>
+      <c r="E61" s="77"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="113" t="s">
+        <v>76</v>
+      </c>
+      <c r="I61" s="28"/>
+      <c r="J61" s="28"/>
+      <c r="K61" s="116"/>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="60"/>
+      <c r="B62" s="63"/>
+      <c r="C62" s="103"/>
+      <c r="D62" s="84"/>
+      <c r="E62" s="77"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="113" t="s">
+        <v>113</v>
+      </c>
+      <c r="I62" s="28"/>
+      <c r="J62" s="28"/>
+      <c r="K62" s="116"/>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="60"/>
+      <c r="B63" s="63"/>
+      <c r="C63" s="103"/>
+      <c r="D63" s="84"/>
+      <c r="E63" s="77"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="113" t="s">
+        <v>90</v>
+      </c>
+      <c r="I63" s="28"/>
+      <c r="J63" s="28"/>
+      <c r="K63" s="116"/>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="60"/>
+      <c r="B64" s="63"/>
+      <c r="C64" s="103"/>
+      <c r="D64" s="84"/>
+      <c r="E64" s="77"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="113" t="s">
+        <v>117</v>
+      </c>
+      <c r="I64" s="28"/>
+      <c r="J64" s="28"/>
+      <c r="K64" s="116"/>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="60"/>
+      <c r="B65" s="63"/>
+      <c r="C65" s="103"/>
+      <c r="D65" s="84"/>
+      <c r="E65" s="77"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="113" t="s">
+        <v>115</v>
+      </c>
+      <c r="I65" s="28"/>
+      <c r="J65" s="28"/>
+      <c r="K65" s="116"/>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="60"/>
+      <c r="B66" s="63"/>
+      <c r="C66" s="103"/>
+      <c r="D66" s="84"/>
+      <c r="E66" s="77"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="113" t="s">
+        <v>116</v>
+      </c>
+      <c r="I66" s="28"/>
+      <c r="J66" s="28"/>
+      <c r="K66" s="116"/>
+    </row>
+    <row r="67" spans="1:11" ht="15" customHeight="1">
+      <c r="A67" s="60"/>
+      <c r="B67" s="63"/>
+      <c r="C67" s="103"/>
+      <c r="D67" s="84"/>
+      <c r="E67" s="77"/>
+      <c r="F67" s="28"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="113" t="s">
+        <v>114</v>
+      </c>
+      <c r="I67" s="28"/>
+      <c r="J67" s="28"/>
+      <c r="K67" s="116"/>
+    </row>
+    <row r="68" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A68" s="61"/>
+      <c r="B68" s="63"/>
+      <c r="C68" s="103"/>
+      <c r="D68" s="104"/>
+      <c r="E68" s="105"/>
+      <c r="F68" s="106"/>
+      <c r="G68" s="106"/>
+      <c r="H68" s="120" t="s">
+        <v>119</v>
+      </c>
+      <c r="I68" s="106"/>
+      <c r="J68" s="106"/>
+      <c r="K68" s="121"/>
+    </row>
+    <row r="69" spans="1:11" ht="90" customHeight="1">
+      <c r="A69" s="59">
+        <v>20</v>
+      </c>
+      <c r="B69" s="63"/>
+      <c r="C69" s="103"/>
+      <c r="D69" s="79" t="s">
+        <v>121</v>
+      </c>
+      <c r="E69" s="80" t="s">
+        <v>65</v>
+      </c>
+      <c r="F69" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="G69" s="81" t="s">
+        <v>122</v>
+      </c>
+      <c r="H69" s="114" t="s">
+        <v>74</v>
+      </c>
+      <c r="I69" s="81" t="s">
+        <v>120</v>
+      </c>
+      <c r="J69" s="81" t="s">
+        <v>120</v>
+      </c>
+      <c r="K69" s="115"/>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="60"/>
+      <c r="B70" s="63"/>
+      <c r="C70" s="103"/>
+      <c r="D70" s="84"/>
+      <c r="E70" s="77"/>
+      <c r="F70" s="28"/>
+      <c r="G70" s="28"/>
+      <c r="H70" s="113" t="s">
+        <v>76</v>
+      </c>
+      <c r="I70" s="28"/>
+      <c r="J70" s="28"/>
+      <c r="K70" s="116"/>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" s="60"/>
+      <c r="B71" s="63"/>
+      <c r="C71" s="103"/>
+      <c r="D71" s="84"/>
+      <c r="E71" s="77"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="113" t="s">
+        <v>113</v>
+      </c>
+      <c r="I71" s="28"/>
+      <c r="J71" s="28"/>
+      <c r="K71" s="116"/>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="60"/>
+      <c r="B72" s="63"/>
+      <c r="C72" s="103"/>
+      <c r="D72" s="84"/>
+      <c r="E72" s="77"/>
+      <c r="F72" s="28"/>
+      <c r="G72" s="28"/>
+      <c r="H72" s="113" t="s">
+        <v>117</v>
+      </c>
+      <c r="I72" s="28"/>
+      <c r="J72" s="28"/>
+      <c r="K72" s="116"/>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="60"/>
+      <c r="B73" s="63"/>
+      <c r="C73" s="103"/>
+      <c r="D73" s="84"/>
+      <c r="E73" s="77"/>
+      <c r="F73" s="28"/>
+      <c r="G73" s="28"/>
+      <c r="H73" s="113" t="s">
+        <v>115</v>
+      </c>
+      <c r="I73" s="28"/>
+      <c r="J73" s="28"/>
+      <c r="K73" s="116"/>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="60"/>
+      <c r="B74" s="63"/>
+      <c r="C74" s="103"/>
+      <c r="D74" s="84"/>
+      <c r="E74" s="77"/>
+      <c r="F74" s="28"/>
+      <c r="G74" s="28"/>
+      <c r="H74" s="113" t="s">
+        <v>116</v>
+      </c>
+      <c r="I74" s="28"/>
+      <c r="J74" s="28"/>
+      <c r="K74" s="116"/>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="60"/>
+      <c r="B75" s="63"/>
+      <c r="C75" s="103"/>
+      <c r="D75" s="84"/>
+      <c r="E75" s="77"/>
+      <c r="F75" s="28"/>
+      <c r="G75" s="28"/>
+      <c r="H75" s="113" t="s">
+        <v>114</v>
+      </c>
+      <c r="I75" s="28"/>
+      <c r="J75" s="28"/>
+      <c r="K75" s="116"/>
+    </row>
+    <row r="76" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A76" s="60"/>
+      <c r="B76" s="63"/>
+      <c r="C76" s="103"/>
+      <c r="D76" s="84"/>
+      <c r="E76" s="77"/>
+      <c r="F76" s="28"/>
+      <c r="G76" s="28"/>
+      <c r="H76" s="113" t="s">
+        <v>119</v>
+      </c>
+      <c r="I76" s="28"/>
+      <c r="J76" s="28"/>
+      <c r="K76" s="116"/>
+    </row>
+    <row r="77" spans="1:11" ht="90" customHeight="1">
+      <c r="A77" s="59">
+        <v>21</v>
+      </c>
+      <c r="B77" s="63"/>
+      <c r="C77" s="103"/>
+      <c r="D77" s="79" t="s">
+        <v>123</v>
+      </c>
+      <c r="E77" s="80" t="s">
+        <v>65</v>
+      </c>
+      <c r="F77" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="G77" s="81" t="s">
+        <v>124</v>
+      </c>
+      <c r="H77" s="114" t="s">
+        <v>74</v>
+      </c>
+      <c r="I77" s="81" t="s">
+        <v>120</v>
+      </c>
+      <c r="J77" s="81" t="s">
+        <v>120</v>
+      </c>
+      <c r="K77" s="115"/>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="60"/>
+      <c r="B78" s="63"/>
+      <c r="C78" s="103"/>
+      <c r="D78" s="84"/>
+      <c r="E78" s="77"/>
+      <c r="F78" s="28"/>
+      <c r="G78" s="28"/>
+      <c r="H78" s="113" t="s">
+        <v>76</v>
+      </c>
+      <c r="I78" s="28"/>
+      <c r="J78" s="28"/>
+      <c r="K78" s="116"/>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" s="60"/>
+      <c r="B79" s="63"/>
+      <c r="C79" s="103"/>
+      <c r="D79" s="84"/>
+      <c r="E79" s="77"/>
+      <c r="F79" s="28"/>
+      <c r="G79" s="28"/>
+      <c r="H79" s="113" t="s">
+        <v>113</v>
+      </c>
+      <c r="I79" s="28"/>
+      <c r="J79" s="28"/>
+      <c r="K79" s="116"/>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" s="60"/>
+      <c r="B80" s="63"/>
+      <c r="C80" s="103"/>
+      <c r="D80" s="84"/>
+      <c r="E80" s="77"/>
+      <c r="F80" s="28"/>
+      <c r="G80" s="28"/>
+      <c r="H80" s="113" t="s">
+        <v>90</v>
+      </c>
+      <c r="I80" s="28"/>
+      <c r="J80" s="28"/>
+      <c r="K80" s="116"/>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" s="60"/>
+      <c r="B81" s="63"/>
+      <c r="C81" s="103"/>
+      <c r="D81" s="84"/>
+      <c r="E81" s="77"/>
+      <c r="F81" s="28"/>
+      <c r="G81" s="28"/>
+      <c r="H81" s="113" t="s">
+        <v>115</v>
+      </c>
+      <c r="I81" s="28"/>
+      <c r="J81" s="28"/>
+      <c r="K81" s="116"/>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" s="60"/>
+      <c r="B82" s="63"/>
+      <c r="C82" s="103"/>
+      <c r="D82" s="84"/>
+      <c r="E82" s="77"/>
+      <c r="F82" s="28"/>
+      <c r="G82" s="28"/>
+      <c r="H82" s="113" t="s">
+        <v>116</v>
+      </c>
+      <c r="I82" s="28"/>
+      <c r="J82" s="28"/>
+      <c r="K82" s="116"/>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" s="60"/>
+      <c r="B83" s="63"/>
+      <c r="C83" s="103"/>
+      <c r="D83" s="84"/>
+      <c r="E83" s="77"/>
+      <c r="F83" s="28"/>
+      <c r="G83" s="28"/>
+      <c r="H83" s="113" t="s">
+        <v>114</v>
+      </c>
+      <c r="I83" s="28"/>
+      <c r="J83" s="28"/>
+      <c r="K83" s="116"/>
+    </row>
+    <row r="84" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A84" s="61"/>
+      <c r="B84" s="63"/>
+      <c r="C84" s="103"/>
+      <c r="D84" s="86"/>
+      <c r="E84" s="87"/>
+      <c r="F84" s="88"/>
+      <c r="G84" s="88"/>
+      <c r="H84" s="117" t="s">
+        <v>119</v>
+      </c>
+      <c r="I84" s="88"/>
+      <c r="J84" s="88"/>
+      <c r="K84" s="118"/>
+    </row>
+    <row r="85" spans="1:11" ht="90" customHeight="1">
+      <c r="A85" s="59">
+        <v>22</v>
+      </c>
+      <c r="B85" s="63"/>
+      <c r="C85" s="103"/>
+      <c r="D85" s="79" t="s">
+        <v>125</v>
+      </c>
+      <c r="E85" s="80" t="s">
+        <v>65</v>
+      </c>
+      <c r="F85" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="G85" s="81" t="s">
+        <v>126</v>
+      </c>
+      <c r="H85" s="114" t="s">
+        <v>74</v>
+      </c>
+      <c r="I85" s="81" t="s">
+        <v>120</v>
+      </c>
+      <c r="J85" s="81" t="s">
+        <v>120</v>
+      </c>
+      <c r="K85" s="115"/>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" s="60"/>
+      <c r="B86" s="63"/>
+      <c r="C86" s="103"/>
+      <c r="D86" s="84"/>
+      <c r="E86" s="77"/>
+      <c r="F86" s="28"/>
+      <c r="G86" s="28"/>
+      <c r="H86" s="113" t="s">
+        <v>76</v>
+      </c>
+      <c r="I86" s="28"/>
+      <c r="J86" s="28"/>
+      <c r="K86" s="116"/>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" s="60"/>
+      <c r="B87" s="63"/>
+      <c r="C87" s="103"/>
+      <c r="D87" s="84"/>
+      <c r="E87" s="77"/>
+      <c r="F87" s="28"/>
+      <c r="G87" s="28"/>
+      <c r="H87" s="113" t="s">
+        <v>113</v>
+      </c>
+      <c r="I87" s="28"/>
+      <c r="J87" s="28"/>
+      <c r="K87" s="116"/>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" s="60"/>
+      <c r="B88" s="63"/>
+      <c r="C88" s="103"/>
+      <c r="D88" s="84"/>
+      <c r="E88" s="77"/>
+      <c r="F88" s="28"/>
+      <c r="G88" s="28"/>
+      <c r="H88" s="113" t="s">
+        <v>90</v>
+      </c>
+      <c r="I88" s="28"/>
+      <c r="J88" s="28"/>
+      <c r="K88" s="116"/>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" s="60"/>
+      <c r="B89" s="63"/>
+      <c r="C89" s="103"/>
+      <c r="D89" s="84"/>
+      <c r="E89" s="77"/>
+      <c r="F89" s="28"/>
+      <c r="G89" s="28"/>
+      <c r="H89" s="113" t="s">
+        <v>117</v>
+      </c>
+      <c r="I89" s="28"/>
+      <c r="J89" s="28"/>
+      <c r="K89" s="116"/>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" s="60"/>
+      <c r="B90" s="63"/>
+      <c r="C90" s="103"/>
+      <c r="D90" s="84"/>
+      <c r="E90" s="77"/>
+      <c r="F90" s="28"/>
+      <c r="G90" s="28"/>
+      <c r="H90" s="113" t="s">
+        <v>116</v>
+      </c>
+      <c r="I90" s="28"/>
+      <c r="J90" s="28"/>
+      <c r="K90" s="116"/>
+    </row>
+    <row r="91" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A91" s="60"/>
+      <c r="B91" s="63"/>
+      <c r="C91" s="103"/>
+      <c r="D91" s="84"/>
+      <c r="E91" s="77"/>
+      <c r="F91" s="28"/>
+      <c r="G91" s="28"/>
+      <c r="H91" s="113" t="s">
+        <v>114</v>
+      </c>
+      <c r="I91" s="28"/>
+      <c r="J91" s="28"/>
+      <c r="K91" s="116"/>
+    </row>
+    <row r="92" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A92" s="61"/>
+      <c r="B92" s="63"/>
+      <c r="C92" s="103"/>
+      <c r="D92" s="86"/>
+      <c r="E92" s="87"/>
+      <c r="F92" s="88"/>
+      <c r="G92" s="88"/>
+      <c r="H92" s="117" t="s">
+        <v>119</v>
+      </c>
+      <c r="I92" s="88"/>
+      <c r="J92" s="88"/>
+      <c r="K92" s="118"/>
+    </row>
+    <row r="93" spans="1:11" ht="90" customHeight="1">
+      <c r="A93" s="59">
+        <v>23</v>
+      </c>
+      <c r="B93" s="63"/>
+      <c r="C93" s="103"/>
+      <c r="D93" s="79" t="s">
+        <v>127</v>
+      </c>
+      <c r="E93" s="80" t="s">
+        <v>65</v>
+      </c>
+      <c r="F93" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="G93" s="81" t="s">
+        <v>128</v>
+      </c>
+      <c r="H93" s="114" t="s">
+        <v>74</v>
+      </c>
+      <c r="I93" s="81" t="s">
+        <v>130</v>
+      </c>
+      <c r="J93" s="81" t="s">
+        <v>130</v>
+      </c>
+      <c r="K93" s="115"/>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" s="60"/>
+      <c r="B94" s="63"/>
+      <c r="C94" s="103"/>
+      <c r="D94" s="84"/>
+      <c r="E94" s="77"/>
+      <c r="F94" s="28"/>
+      <c r="G94" s="28"/>
+      <c r="H94" s="113" t="s">
+        <v>76</v>
+      </c>
+      <c r="I94" s="28"/>
+      <c r="J94" s="28"/>
+      <c r="K94" s="116"/>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" s="60"/>
+      <c r="B95" s="63"/>
+      <c r="C95" s="103"/>
+      <c r="D95" s="84"/>
+      <c r="E95" s="77"/>
+      <c r="F95" s="28"/>
+      <c r="G95" s="28"/>
+      <c r="H95" s="113" t="s">
+        <v>113</v>
+      </c>
+      <c r="I95" s="28"/>
+      <c r="J95" s="28"/>
+      <c r="K95" s="116"/>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" s="60"/>
+      <c r="B96" s="63"/>
+      <c r="C96" s="103"/>
+      <c r="D96" s="84"/>
+      <c r="E96" s="77"/>
+      <c r="F96" s="28"/>
+      <c r="G96" s="28"/>
+      <c r="H96" s="113" t="s">
+        <v>90</v>
+      </c>
+      <c r="I96" s="28"/>
+      <c r="J96" s="28"/>
+      <c r="K96" s="116"/>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" s="60"/>
+      <c r="B97" s="63"/>
+      <c r="C97" s="103"/>
+      <c r="D97" s="84"/>
+      <c r="E97" s="77"/>
+      <c r="F97" s="28"/>
+      <c r="G97" s="28"/>
+      <c r="H97" s="113" t="s">
+        <v>117</v>
+      </c>
+      <c r="I97" s="28"/>
+      <c r="J97" s="28"/>
+      <c r="K97" s="116"/>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98" s="60"/>
+      <c r="B98" s="63"/>
+      <c r="C98" s="103"/>
+      <c r="D98" s="84"/>
+      <c r="E98" s="77"/>
+      <c r="F98" s="28"/>
+      <c r="G98" s="28"/>
+      <c r="H98" s="113" t="s">
+        <v>129</v>
+      </c>
+      <c r="I98" s="28"/>
+      <c r="J98" s="28"/>
+      <c r="K98" s="116"/>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99" s="60"/>
+      <c r="B99" s="63"/>
+      <c r="C99" s="103"/>
+      <c r="D99" s="84"/>
+      <c r="E99" s="77"/>
+      <c r="F99" s="28"/>
+      <c r="G99" s="28"/>
+      <c r="H99" s="113" t="s">
+        <v>116</v>
+      </c>
+      <c r="I99" s="28"/>
+      <c r="J99" s="28"/>
+      <c r="K99" s="116"/>
+    </row>
+    <row r="100" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A100" s="60"/>
+      <c r="B100" s="63"/>
+      <c r="C100" s="103"/>
+      <c r="D100" s="84"/>
+      <c r="E100" s="77"/>
+      <c r="F100" s="28"/>
+      <c r="G100" s="28"/>
+      <c r="H100" s="113" t="s">
+        <v>114</v>
+      </c>
+      <c r="I100" s="28"/>
+      <c r="J100" s="28"/>
+      <c r="K100" s="116"/>
+    </row>
+    <row r="101" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A101" s="61"/>
+      <c r="B101" s="63"/>
+      <c r="C101" s="103"/>
+      <c r="D101" s="86"/>
+      <c r="E101" s="87"/>
+      <c r="F101" s="88"/>
+      <c r="G101" s="88"/>
+      <c r="H101" s="117" t="s">
+        <v>119</v>
+      </c>
+      <c r="I101" s="88"/>
+      <c r="J101" s="88"/>
+      <c r="K101" s="118"/>
+    </row>
+    <row r="102" spans="1:11" ht="90" customHeight="1">
+      <c r="A102" s="59">
+        <v>24</v>
+      </c>
+      <c r="B102" s="63"/>
+      <c r="C102" s="103"/>
+      <c r="D102" s="79" t="s">
+        <v>131</v>
+      </c>
+      <c r="E102" s="80" t="s">
+        <v>65</v>
+      </c>
+      <c r="F102" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="G102" s="81" t="s">
+        <v>132</v>
+      </c>
+      <c r="H102" s="114" t="s">
+        <v>74</v>
+      </c>
+      <c r="I102" s="81" t="s">
+        <v>120</v>
+      </c>
+      <c r="J102" s="81" t="s">
+        <v>120</v>
+      </c>
+      <c r="K102" s="115"/>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103" s="60"/>
+      <c r="B103" s="63"/>
+      <c r="C103" s="103"/>
+      <c r="D103" s="84"/>
+      <c r="E103" s="77"/>
+      <c r="F103" s="28"/>
+      <c r="G103" s="28"/>
+      <c r="H103" s="113" t="s">
+        <v>76</v>
+      </c>
+      <c r="I103" s="28"/>
+      <c r="J103" s="28"/>
+      <c r="K103" s="116"/>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104" s="60"/>
+      <c r="B104" s="63"/>
+      <c r="C104" s="103"/>
+      <c r="D104" s="84"/>
+      <c r="E104" s="77"/>
+      <c r="F104" s="28"/>
+      <c r="G104" s="28"/>
+      <c r="H104" s="113" t="s">
+        <v>113</v>
+      </c>
+      <c r="I104" s="28"/>
+      <c r="J104" s="28"/>
+      <c r="K104" s="116"/>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105" s="60"/>
+      <c r="B105" s="63"/>
+      <c r="C105" s="103"/>
+      <c r="D105" s="84"/>
+      <c r="E105" s="77"/>
+      <c r="F105" s="28"/>
+      <c r="G105" s="28"/>
+      <c r="H105" s="113" t="s">
+        <v>90</v>
+      </c>
+      <c r="I105" s="28"/>
+      <c r="J105" s="28"/>
+      <c r="K105" s="116"/>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106" s="60"/>
+      <c r="B106" s="63"/>
+      <c r="C106" s="103"/>
+      <c r="D106" s="84"/>
+      <c r="E106" s="77"/>
+      <c r="F106" s="28"/>
+      <c r="G106" s="28"/>
+      <c r="H106" s="113" t="s">
+        <v>117</v>
+      </c>
+      <c r="I106" s="28"/>
+      <c r="J106" s="28"/>
+      <c r="K106" s="116"/>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107" s="60"/>
+      <c r="B107" s="63"/>
+      <c r="C107" s="103"/>
+      <c r="D107" s="84"/>
+      <c r="E107" s="77"/>
+      <c r="F107" s="28"/>
+      <c r="G107" s="28"/>
+      <c r="H107" s="113" t="s">
+        <v>115</v>
+      </c>
+      <c r="I107" s="28"/>
+      <c r="J107" s="28"/>
+      <c r="K107" s="116"/>
+    </row>
+    <row r="108" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A108" s="60"/>
+      <c r="B108" s="63"/>
+      <c r="C108" s="103"/>
+      <c r="D108" s="84"/>
+      <c r="E108" s="77"/>
+      <c r="F108" s="28"/>
+      <c r="G108" s="28"/>
+      <c r="H108" s="113" t="s">
+        <v>114</v>
+      </c>
+      <c r="I108" s="28"/>
+      <c r="J108" s="28"/>
+      <c r="K108" s="116"/>
+    </row>
+    <row r="109" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A109" s="61"/>
+      <c r="B109" s="63"/>
+      <c r="C109" s="103"/>
+      <c r="D109" s="86"/>
+      <c r="E109" s="87"/>
+      <c r="F109" s="88"/>
+      <c r="G109" s="88"/>
+      <c r="H109" s="117" t="s">
+        <v>119</v>
+      </c>
+      <c r="I109" s="88"/>
+      <c r="J109" s="88"/>
+      <c r="K109" s="118"/>
+    </row>
+    <row r="110" spans="1:11" ht="90" customHeight="1">
+      <c r="A110" s="59">
+        <v>25</v>
+      </c>
+      <c r="B110" s="63"/>
+      <c r="C110" s="103"/>
+      <c r="D110" s="79" t="s">
+        <v>133</v>
+      </c>
+      <c r="E110" s="80" t="s">
+        <v>65</v>
+      </c>
+      <c r="F110" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="G110" s="81" t="s">
+        <v>134</v>
+      </c>
+      <c r="H110" s="114" t="s">
+        <v>74</v>
+      </c>
+      <c r="I110" s="81" t="s">
+        <v>120</v>
+      </c>
+      <c r="J110" s="81" t="s">
+        <v>120</v>
+      </c>
+      <c r="K110" s="115"/>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111" s="60"/>
+      <c r="B111" s="63"/>
+      <c r="C111" s="103"/>
+      <c r="D111" s="84"/>
+      <c r="E111" s="77"/>
+      <c r="F111" s="28"/>
+      <c r="G111" s="28"/>
+      <c r="H111" s="113" t="s">
+        <v>76</v>
+      </c>
+      <c r="I111" s="28"/>
+      <c r="J111" s="28"/>
+      <c r="K111" s="116"/>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112" s="60"/>
+      <c r="B112" s="63"/>
+      <c r="C112" s="103"/>
+      <c r="D112" s="84"/>
+      <c r="E112" s="77"/>
+      <c r="F112" s="28"/>
+      <c r="G112" s="28"/>
+      <c r="H112" s="113" t="s">
+        <v>113</v>
+      </c>
+      <c r="I112" s="28"/>
+      <c r="J112" s="28"/>
+      <c r="K112" s="116"/>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113" s="60"/>
+      <c r="B113" s="63"/>
+      <c r="C113" s="103"/>
+      <c r="D113" s="84"/>
+      <c r="E113" s="77"/>
+      <c r="F113" s="28"/>
+      <c r="G113" s="28"/>
+      <c r="H113" s="113" t="s">
+        <v>90</v>
+      </c>
+      <c r="I113" s="28"/>
+      <c r="J113" s="28"/>
+      <c r="K113" s="116"/>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114" s="60"/>
+      <c r="B114" s="63"/>
+      <c r="C114" s="103"/>
+      <c r="D114" s="84"/>
+      <c r="E114" s="77"/>
+      <c r="F114" s="28"/>
+      <c r="G114" s="28"/>
+      <c r="H114" s="113" t="s">
+        <v>117</v>
+      </c>
+      <c r="I114" s="28"/>
+      <c r="J114" s="28"/>
+      <c r="K114" s="116"/>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115" s="60"/>
+      <c r="B115" s="63"/>
+      <c r="C115" s="103"/>
+      <c r="D115" s="84"/>
+      <c r="E115" s="77"/>
+      <c r="F115" s="28"/>
+      <c r="G115" s="28"/>
+      <c r="H115" s="113" t="s">
+        <v>115</v>
+      </c>
+      <c r="I115" s="28"/>
+      <c r="J115" s="28"/>
+      <c r="K115" s="116"/>
+    </row>
+    <row r="116" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A116" s="60"/>
+      <c r="B116" s="63"/>
+      <c r="C116" s="103"/>
+      <c r="D116" s="84"/>
+      <c r="E116" s="77"/>
+      <c r="F116" s="28"/>
+      <c r="G116" s="28"/>
+      <c r="H116" s="113" t="s">
+        <v>116</v>
+      </c>
+      <c r="I116" s="28"/>
+      <c r="J116" s="28"/>
+      <c r="K116" s="116"/>
+    </row>
+    <row r="117" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A117" s="61"/>
+      <c r="B117" s="63"/>
+      <c r="C117" s="103"/>
+      <c r="D117" s="86"/>
+      <c r="E117" s="87"/>
+      <c r="F117" s="88"/>
+      <c r="G117" s="88"/>
+      <c r="H117" s="117" t="s">
+        <v>119</v>
+      </c>
+      <c r="I117" s="88"/>
+      <c r="J117" s="88"/>
+      <c r="K117" s="118"/>
+    </row>
+    <row r="118" spans="1:11" ht="90" customHeight="1">
+      <c r="A118" s="59">
+        <v>25</v>
+      </c>
+      <c r="B118" s="63"/>
+      <c r="C118" s="103"/>
+      <c r="D118" s="79" t="s">
+        <v>135</v>
+      </c>
+      <c r="E118" s="80" t="s">
+        <v>65</v>
+      </c>
+      <c r="F118" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="G118" s="81" t="s">
+        <v>136</v>
+      </c>
+      <c r="H118" s="114" t="s">
+        <v>74</v>
+      </c>
+      <c r="I118" s="81" t="s">
+        <v>138</v>
+      </c>
+      <c r="J118" s="81" t="s">
+        <v>138</v>
+      </c>
+      <c r="K118" s="115"/>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119" s="60"/>
+      <c r="B119" s="63"/>
+      <c r="C119" s="103"/>
+      <c r="D119" s="84"/>
+      <c r="E119" s="77"/>
+      <c r="F119" s="28"/>
+      <c r="G119" s="28"/>
+      <c r="H119" s="113" t="s">
+        <v>76</v>
+      </c>
+      <c r="I119" s="28"/>
+      <c r="J119" s="28"/>
+      <c r="K119" s="116"/>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120" s="60"/>
+      <c r="B120" s="63"/>
+      <c r="C120" s="103"/>
+      <c r="D120" s="84"/>
+      <c r="E120" s="77"/>
+      <c r="F120" s="28"/>
+      <c r="G120" s="28"/>
+      <c r="H120" s="113" t="s">
+        <v>113</v>
+      </c>
+      <c r="I120" s="28"/>
+      <c r="J120" s="28"/>
+      <c r="K120" s="116"/>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121" s="60"/>
+      <c r="B121" s="63"/>
+      <c r="C121" s="103"/>
+      <c r="D121" s="84"/>
+      <c r="E121" s="77"/>
+      <c r="F121" s="28"/>
+      <c r="G121" s="28"/>
+      <c r="H121" s="113" t="s">
+        <v>90</v>
+      </c>
+      <c r="I121" s="28"/>
+      <c r="J121" s="28"/>
+      <c r="K121" s="116"/>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122" s="60"/>
+      <c r="B122" s="63"/>
+      <c r="C122" s="103"/>
+      <c r="D122" s="84"/>
+      <c r="E122" s="77"/>
+      <c r="F122" s="28"/>
+      <c r="G122" s="28"/>
+      <c r="H122" s="113" t="s">
+        <v>117</v>
+      </c>
+      <c r="I122" s="28"/>
+      <c r="J122" s="28"/>
+      <c r="K122" s="116"/>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123" s="60"/>
+      <c r="B123" s="63"/>
+      <c r="C123" s="103"/>
+      <c r="D123" s="84"/>
+      <c r="E123" s="77"/>
+      <c r="F123" s="28"/>
+      <c r="G123" s="28"/>
+      <c r="H123" s="113" t="s">
+        <v>115</v>
+      </c>
+      <c r="I123" s="28"/>
+      <c r="J123" s="28"/>
+      <c r="K123" s="116"/>
+    </row>
+    <row r="124" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A124" s="60"/>
+      <c r="B124" s="63"/>
+      <c r="C124" s="103"/>
+      <c r="D124" s="84"/>
+      <c r="E124" s="77"/>
+      <c r="F124" s="28"/>
+      <c r="G124" s="28"/>
+      <c r="H124" s="113" t="s">
+        <v>116</v>
+      </c>
+      <c r="I124" s="28"/>
+      <c r="J124" s="28"/>
+      <c r="K124" s="116"/>
+    </row>
+    <row r="125" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A125" s="61"/>
+      <c r="B125" s="63"/>
+      <c r="C125" s="103"/>
+      <c r="D125" s="86"/>
+      <c r="E125" s="87"/>
+      <c r="F125" s="88"/>
+      <c r="G125" s="88"/>
+      <c r="H125" s="117" t="s">
+        <v>137</v>
+      </c>
+      <c r="I125" s="88"/>
+      <c r="J125" s="88"/>
+      <c r="K125" s="118"/>
+    </row>
+    <row r="126" spans="1:11" ht="90" customHeight="1">
+      <c r="A126" s="59">
+        <v>26</v>
+      </c>
+      <c r="B126" s="63"/>
+      <c r="C126" s="103"/>
+      <c r="D126" s="79" t="s">
+        <v>139</v>
+      </c>
+      <c r="E126" s="80" t="s">
+        <v>65</v>
+      </c>
+      <c r="F126" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="G126" s="81" t="s">
+        <v>140</v>
+      </c>
+      <c r="H126" s="114" t="s">
+        <v>74</v>
+      </c>
+      <c r="I126" s="81" t="s">
+        <v>144</v>
+      </c>
+      <c r="J126" s="81" t="s">
+        <v>144</v>
+      </c>
+      <c r="K126" s="115"/>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127" s="60"/>
+      <c r="B127" s="63"/>
+      <c r="C127" s="103"/>
+      <c r="D127" s="84"/>
+      <c r="E127" s="77"/>
+      <c r="F127" s="28"/>
+      <c r="G127" s="28"/>
+      <c r="H127" s="113" t="s">
+        <v>76</v>
+      </c>
+      <c r="I127" s="28"/>
+      <c r="J127" s="28"/>
+      <c r="K127" s="116"/>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128" s="60"/>
+      <c r="B128" s="63"/>
+      <c r="C128" s="103"/>
+      <c r="D128" s="84"/>
+      <c r="E128" s="77"/>
+      <c r="F128" s="28"/>
+      <c r="G128" s="28"/>
+      <c r="H128" s="113" t="s">
+        <v>141</v>
+      </c>
+      <c r="I128" s="28"/>
+      <c r="J128" s="28"/>
+      <c r="K128" s="116"/>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129" s="60"/>
+      <c r="B129" s="63"/>
+      <c r="C129" s="103"/>
+      <c r="D129" s="84"/>
+      <c r="E129" s="77"/>
+      <c r="F129" s="28"/>
+      <c r="G129" s="28"/>
+      <c r="H129" s="113" t="s">
+        <v>142</v>
+      </c>
+      <c r="I129" s="28"/>
+      <c r="J129" s="28"/>
+      <c r="K129" s="116"/>
+    </row>
+    <row r="130" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A130" s="60"/>
+      <c r="B130" s="63"/>
+      <c r="C130" s="103"/>
+      <c r="D130" s="84"/>
+      <c r="E130" s="77"/>
+      <c r="F130" s="28"/>
+      <c r="G130" s="28"/>
+      <c r="H130" s="113" t="s">
+        <v>143</v>
+      </c>
+      <c r="I130" s="28"/>
+      <c r="J130" s="28"/>
+      <c r="K130" s="116"/>
+    </row>
+    <row r="131" spans="1:11" ht="90" customHeight="1">
+      <c r="A131" s="59">
+        <v>27</v>
+      </c>
+      <c r="B131" s="63"/>
+      <c r="C131" s="103"/>
+      <c r="D131" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="E131" s="98" t="s">
+        <v>65</v>
+      </c>
+      <c r="F131" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="G131" s="46" t="s">
+        <v>149</v>
+      </c>
+      <c r="H131" s="114" t="s">
+        <v>74</v>
+      </c>
+      <c r="I131" s="46" t="s">
+        <v>148</v>
+      </c>
+      <c r="J131" s="46" t="s">
+        <v>148</v>
+      </c>
+      <c r="K131" s="115"/>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132" s="60"/>
+      <c r="B132" s="63"/>
+      <c r="C132" s="103"/>
+      <c r="D132" s="66"/>
+      <c r="E132" s="134"/>
+      <c r="F132" s="39"/>
+      <c r="G132" s="39"/>
+      <c r="H132" s="113" t="s">
+        <v>76</v>
+      </c>
+      <c r="I132" s="39"/>
+      <c r="J132" s="39"/>
+      <c r="K132" s="116"/>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133" s="60"/>
+      <c r="B133" s="63"/>
+      <c r="C133" s="103"/>
+      <c r="D133" s="66"/>
+      <c r="E133" s="134"/>
+      <c r="F133" s="39"/>
+      <c r="G133" s="39"/>
+      <c r="H133" s="113" t="s">
+        <v>141</v>
+      </c>
+      <c r="I133" s="39"/>
+      <c r="J133" s="39"/>
+      <c r="K133" s="116"/>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134" s="60"/>
+      <c r="B134" s="63"/>
+      <c r="C134" s="103"/>
+      <c r="D134" s="66"/>
+      <c r="E134" s="134"/>
+      <c r="F134" s="39"/>
+      <c r="G134" s="39"/>
+      <c r="H134" s="113" t="s">
+        <v>146</v>
+      </c>
+      <c r="I134" s="39"/>
+      <c r="J134" s="39"/>
+      <c r="K134" s="116"/>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135" s="60"/>
+      <c r="B135" s="63"/>
+      <c r="C135" s="103"/>
+      <c r="D135" s="66"/>
+      <c r="E135" s="134"/>
+      <c r="F135" s="39"/>
+      <c r="G135" s="39"/>
+      <c r="H135" s="113" t="s">
+        <v>143</v>
+      </c>
+      <c r="I135" s="39"/>
+      <c r="J135" s="39"/>
+      <c r="K135" s="116"/>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136" s="60"/>
+      <c r="B136" s="63"/>
+      <c r="C136" s="103"/>
+      <c r="D136" s="66"/>
+      <c r="E136" s="134"/>
+      <c r="F136" s="39"/>
+      <c r="G136" s="39"/>
+      <c r="H136" s="132" t="s">
+        <v>147</v>
+      </c>
+      <c r="I136" s="39"/>
+      <c r="J136" s="39"/>
+      <c r="K136" s="133"/>
+    </row>
+    <row r="137" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A137" s="61"/>
+      <c r="B137" s="63"/>
+      <c r="C137" s="103"/>
+      <c r="D137" s="67"/>
+      <c r="E137" s="100"/>
+      <c r="F137" s="53"/>
+      <c r="G137" s="53"/>
+      <c r="H137" s="113" t="s">
+        <v>143</v>
+      </c>
+      <c r="I137" s="39"/>
+      <c r="J137" s="39"/>
+      <c r="K137" s="133"/>
+    </row>
+    <row r="138" spans="1:11" ht="90" customHeight="1">
+      <c r="A138" s="59">
+        <v>28</v>
+      </c>
+      <c r="B138" s="63"/>
+      <c r="C138" s="103"/>
+      <c r="D138" s="65" t="s">
+        <v>150</v>
+      </c>
+      <c r="E138" s="98" t="s">
+        <v>65</v>
+      </c>
+      <c r="F138" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="G138" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="H138" s="114" t="s">
+        <v>74</v>
+      </c>
+      <c r="I138" s="46" t="s">
+        <v>154</v>
+      </c>
+      <c r="J138" s="46" t="s">
+        <v>154</v>
+      </c>
+      <c r="K138" s="99"/>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139" s="60"/>
+      <c r="B139" s="63"/>
+      <c r="C139" s="103"/>
+      <c r="D139" s="66"/>
+      <c r="E139" s="134"/>
+      <c r="F139" s="39"/>
+      <c r="G139" s="39"/>
+      <c r="H139" s="113" t="s">
+        <v>76</v>
+      </c>
+      <c r="I139" s="39"/>
+      <c r="J139" s="39"/>
+      <c r="K139" s="128"/>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140" s="60"/>
+      <c r="B140" s="63"/>
+      <c r="C140" s="103"/>
+      <c r="D140" s="66"/>
+      <c r="E140" s="134"/>
+      <c r="F140" s="39"/>
+      <c r="G140" s="39"/>
+      <c r="H140" s="113" t="s">
+        <v>141</v>
+      </c>
+      <c r="I140" s="39"/>
+      <c r="J140" s="39"/>
+      <c r="K140" s="128"/>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141" s="60"/>
+      <c r="B141" s="63"/>
+      <c r="C141" s="103"/>
+      <c r="D141" s="66"/>
+      <c r="E141" s="134"/>
+      <c r="F141" s="39"/>
+      <c r="G141" s="39"/>
+      <c r="H141" s="113" t="s">
+        <v>152</v>
+      </c>
+      <c r="I141" s="39"/>
+      <c r="J141" s="39"/>
+      <c r="K141" s="128"/>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142" s="60"/>
+      <c r="B142" s="63"/>
+      <c r="C142" s="103"/>
+      <c r="D142" s="66"/>
+      <c r="E142" s="134"/>
+      <c r="F142" s="39"/>
+      <c r="G142" s="39"/>
+      <c r="H142" s="113" t="s">
+        <v>153</v>
+      </c>
+      <c r="I142" s="39"/>
+      <c r="J142" s="39"/>
+      <c r="K142" s="128"/>
+    </row>
+    <row r="143" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A143" s="61"/>
+      <c r="B143" s="63"/>
+      <c r="C143" s="103"/>
+      <c r="D143" s="67"/>
+      <c r="E143" s="100"/>
+      <c r="F143" s="53"/>
+      <c r="G143" s="53"/>
+      <c r="H143" s="117" t="s">
+        <v>143</v>
+      </c>
+      <c r="I143" s="53"/>
+      <c r="J143" s="53"/>
+      <c r="K143" s="101"/>
+    </row>
+    <row r="144" spans="1:11" ht="90" customHeight="1">
+      <c r="A144" s="59">
+        <v>29</v>
+      </c>
+      <c r="B144" s="63"/>
+      <c r="C144" s="103"/>
+      <c r="D144" s="65" t="s">
+        <v>155</v>
+      </c>
+      <c r="E144" s="98" t="s">
+        <v>65</v>
+      </c>
+      <c r="F144" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="G144" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="H144" s="114" t="s">
+        <v>74</v>
+      </c>
+      <c r="I144" s="46" t="s">
+        <v>159</v>
+      </c>
+      <c r="J144" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="K144" s="129" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="A145" s="60"/>
+      <c r="B145" s="63"/>
+      <c r="C145" s="103"/>
+      <c r="D145" s="66"/>
+      <c r="E145" s="134"/>
+      <c r="F145" s="39"/>
+      <c r="G145" s="39"/>
+      <c r="H145" s="113" t="s">
+        <v>76</v>
+      </c>
+      <c r="I145" s="39"/>
+      <c r="J145" s="39"/>
+      <c r="K145" s="130"/>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="A146" s="60"/>
+      <c r="B146" s="63"/>
+      <c r="C146" s="103"/>
+      <c r="D146" s="66"/>
+      <c r="E146" s="134"/>
+      <c r="F146" s="39"/>
+      <c r="G146" s="39"/>
+      <c r="H146" s="113" t="s">
+        <v>141</v>
+      </c>
+      <c r="I146" s="39"/>
+      <c r="J146" s="39"/>
+      <c r="K146" s="130"/>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="A147" s="60"/>
+      <c r="B147" s="63"/>
+      <c r="C147" s="103"/>
+      <c r="D147" s="66"/>
+      <c r="E147" s="134"/>
+      <c r="F147" s="39"/>
+      <c r="G147" s="39"/>
+      <c r="H147" s="113" t="s">
+        <v>157</v>
+      </c>
+      <c r="I147" s="39"/>
+      <c r="J147" s="39"/>
+      <c r="K147" s="130"/>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="A148" s="60"/>
+      <c r="B148" s="63"/>
+      <c r="C148" s="103"/>
+      <c r="D148" s="66"/>
+      <c r="E148" s="134"/>
+      <c r="F148" s="39"/>
+      <c r="G148" s="39"/>
+      <c r="H148" s="113" t="s">
+        <v>158</v>
+      </c>
+      <c r="I148" s="39"/>
+      <c r="J148" s="39"/>
+      <c r="K148" s="130"/>
+    </row>
+    <row r="149" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A149" s="61"/>
+      <c r="B149" s="63"/>
+      <c r="C149" s="103"/>
+      <c r="D149" s="67"/>
+      <c r="E149" s="100"/>
+      <c r="F149" s="53"/>
+      <c r="G149" s="53"/>
+      <c r="H149" s="117" t="s">
+        <v>143</v>
+      </c>
+      <c r="I149" s="53"/>
+      <c r="J149" s="53"/>
+      <c r="K149" s="131"/>
+    </row>
+    <row r="150" spans="1:11" ht="90" customHeight="1">
+      <c r="A150" s="59">
+        <v>30</v>
+      </c>
+      <c r="B150" s="63"/>
+      <c r="C150" s="103"/>
+      <c r="D150" s="65" t="s">
+        <v>161</v>
+      </c>
+      <c r="E150" s="98" t="s">
+        <v>65</v>
+      </c>
+      <c r="F150" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="G150" s="46" t="s">
+        <v>162</v>
+      </c>
+      <c r="H150" s="114" t="s">
+        <v>74</v>
+      </c>
+      <c r="I150" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="J150" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="K150" s="115"/>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="A151" s="60"/>
+      <c r="B151" s="63"/>
+      <c r="C151" s="103"/>
+      <c r="D151" s="66"/>
+      <c r="E151" s="134"/>
+      <c r="F151" s="39"/>
+      <c r="G151" s="39"/>
+      <c r="H151" s="113" t="s">
+        <v>76</v>
+      </c>
+      <c r="I151" s="39"/>
+      <c r="J151" s="39"/>
+      <c r="K151" s="116"/>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="A152" s="60"/>
+      <c r="B152" s="63"/>
+      <c r="C152" s="103"/>
+      <c r="D152" s="66"/>
+      <c r="E152" s="134"/>
+      <c r="F152" s="39"/>
+      <c r="G152" s="39"/>
+      <c r="H152" s="113" t="s">
+        <v>141</v>
+      </c>
+      <c r="I152" s="39"/>
+      <c r="J152" s="39"/>
+      <c r="K152" s="116"/>
+    </row>
+    <row r="153" spans="1:11">
+      <c r="A153" s="60"/>
+      <c r="B153" s="63"/>
+      <c r="C153" s="103"/>
+      <c r="D153" s="66"/>
+      <c r="E153" s="134"/>
+      <c r="F153" s="39"/>
+      <c r="G153" s="39"/>
+      <c r="H153" s="113" t="s">
+        <v>163</v>
+      </c>
+      <c r="I153" s="39"/>
+      <c r="J153" s="39"/>
+      <c r="K153" s="116"/>
+    </row>
+    <row r="154" spans="1:11">
+      <c r="A154" s="60"/>
+      <c r="B154" s="63"/>
+      <c r="C154" s="103"/>
+      <c r="D154" s="66"/>
+      <c r="E154" s="134"/>
+      <c r="F154" s="39"/>
+      <c r="G154" s="39"/>
+      <c r="H154" s="113" t="s">
+        <v>143</v>
+      </c>
+      <c r="I154" s="39"/>
+      <c r="J154" s="39"/>
+      <c r="K154" s="116"/>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="A155" s="60"/>
+      <c r="B155" s="63"/>
+      <c r="C155" s="103"/>
+      <c r="D155" s="66"/>
+      <c r="E155" s="134"/>
+      <c r="F155" s="39"/>
+      <c r="G155" s="39"/>
+      <c r="H155" s="132" t="s">
+        <v>164</v>
+      </c>
+      <c r="I155" s="39"/>
+      <c r="J155" s="39"/>
+      <c r="K155" s="133"/>
+    </row>
+    <row r="156" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A156" s="61"/>
+      <c r="B156" s="63"/>
+      <c r="C156" s="103"/>
+      <c r="D156" s="67"/>
+      <c r="E156" s="100"/>
+      <c r="F156" s="53"/>
+      <c r="G156" s="53"/>
+      <c r="H156" s="117" t="s">
+        <v>143</v>
+      </c>
+      <c r="I156" s="53"/>
+      <c r="J156" s="53"/>
+      <c r="K156" s="102"/>
+    </row>
+    <row r="157" spans="1:11" ht="90" customHeight="1">
+      <c r="A157" s="59">
+        <v>31</v>
+      </c>
+      <c r="B157" s="63"/>
+      <c r="C157" s="103"/>
+      <c r="D157" s="79" t="s">
+        <v>166</v>
+      </c>
+      <c r="E157" s="80" t="s">
+        <v>65</v>
+      </c>
+      <c r="F157" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="G157" s="81" t="s">
+        <v>167</v>
+      </c>
+      <c r="H157" s="114" t="s">
+        <v>74</v>
+      </c>
+      <c r="I157" s="81" t="s">
+        <v>169</v>
+      </c>
+      <c r="J157" s="81" t="s">
+        <v>169</v>
+      </c>
+      <c r="K157" s="115"/>
+    </row>
+    <row r="158" spans="1:11">
+      <c r="A158" s="60"/>
+      <c r="B158" s="63"/>
+      <c r="C158" s="103"/>
+      <c r="D158" s="84"/>
+      <c r="E158" s="77"/>
+      <c r="F158" s="28"/>
+      <c r="G158" s="28"/>
+      <c r="H158" s="113" t="s">
+        <v>76</v>
+      </c>
+      <c r="I158" s="28"/>
+      <c r="J158" s="28"/>
+      <c r="K158" s="116"/>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="A159" s="60"/>
+      <c r="B159" s="63"/>
+      <c r="C159" s="103"/>
+      <c r="D159" s="84"/>
+      <c r="E159" s="77"/>
+      <c r="F159" s="28"/>
+      <c r="G159" s="28"/>
+      <c r="H159" s="113" t="s">
+        <v>141</v>
+      </c>
+      <c r="I159" s="28"/>
+      <c r="J159" s="28"/>
+      <c r="K159" s="116"/>
+    </row>
+    <row r="160" spans="1:11">
+      <c r="A160" s="60"/>
+      <c r="B160" s="63"/>
+      <c r="C160" s="103"/>
+      <c r="D160" s="84"/>
+      <c r="E160" s="77"/>
+      <c r="F160" s="28"/>
+      <c r="G160" s="28"/>
+      <c r="H160" s="113" t="s">
+        <v>168</v>
+      </c>
+      <c r="I160" s="28"/>
+      <c r="J160" s="28"/>
+      <c r="K160" s="116"/>
+    </row>
+    <row r="161" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A161" s="60"/>
+      <c r="B161" s="63"/>
+      <c r="C161" s="103"/>
+      <c r="D161" s="84"/>
+      <c r="E161" s="77"/>
+      <c r="F161" s="28"/>
+      <c r="G161" s="28"/>
+      <c r="H161" s="113" t="s">
+        <v>143</v>
+      </c>
+      <c r="I161" s="28"/>
+      <c r="J161" s="28"/>
+      <c r="K161" s="116"/>
+    </row>
+    <row r="162" spans="1:11" ht="90" customHeight="1">
+      <c r="A162" s="59">
+        <v>32</v>
+      </c>
+      <c r="B162" s="63"/>
+      <c r="C162" s="103"/>
+      <c r="D162" s="79" t="s">
+        <v>44</v>
+      </c>
+      <c r="E162" s="80" t="s">
+        <v>65</v>
+      </c>
+      <c r="F162" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="G162" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="H162" s="114" t="s">
+        <v>74</v>
+      </c>
+      <c r="I162" s="81" t="s">
+        <v>171</v>
+      </c>
+      <c r="J162" s="81" t="s">
+        <v>171</v>
+      </c>
+      <c r="K162" s="115"/>
+    </row>
+    <row r="163" spans="1:11">
+      <c r="A163" s="60"/>
+      <c r="B163" s="63"/>
+      <c r="C163" s="103"/>
+      <c r="D163" s="84"/>
+      <c r="E163" s="77"/>
+      <c r="F163" s="28"/>
+      <c r="G163" s="28"/>
+      <c r="H163" s="113" t="s">
+        <v>76</v>
+      </c>
+      <c r="I163" s="28"/>
+      <c r="J163" s="28"/>
+      <c r="K163" s="116"/>
+    </row>
+    <row r="164" spans="1:11">
+      <c r="A164" s="60"/>
+      <c r="B164" s="63"/>
+      <c r="C164" s="103"/>
+      <c r="D164" s="84"/>
+      <c r="E164" s="77"/>
+      <c r="F164" s="28"/>
+      <c r="G164" s="28"/>
+      <c r="H164" s="113" t="s">
+        <v>141</v>
+      </c>
+      <c r="I164" s="28"/>
+      <c r="J164" s="28"/>
+      <c r="K164" s="116"/>
+    </row>
+    <row r="165" spans="1:11">
+      <c r="A165" s="60"/>
+      <c r="B165" s="63"/>
+      <c r="C165" s="103"/>
+      <c r="D165" s="84"/>
+      <c r="E165" s="77"/>
+      <c r="F165" s="28"/>
+      <c r="G165" s="28"/>
+      <c r="H165" s="113" t="s">
+        <v>170</v>
+      </c>
+      <c r="I165" s="28"/>
+      <c r="J165" s="28"/>
+      <c r="K165" s="116"/>
+    </row>
+    <row r="166" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A166" s="61"/>
+      <c r="B166" s="63"/>
+      <c r="C166" s="103"/>
+      <c r="D166" s="86"/>
+      <c r="E166" s="87"/>
+      <c r="F166" s="88"/>
+      <c r="G166" s="88"/>
+      <c r="H166" s="117" t="s">
+        <v>63</v>
+      </c>
+      <c r="I166" s="88"/>
+      <c r="J166" s="88"/>
+      <c r="K166" s="118"/>
+    </row>
+    <row r="167" spans="1:11">
+      <c r="A167">
+        <v>22</v>
+      </c>
+      <c r="B167" s="63"/>
+      <c r="C167" s="96"/>
+      <c r="D167" s="71"/>
+    </row>
+    <row r="168" spans="1:11" ht="45">
+      <c r="A168">
+        <v>23</v>
+      </c>
+      <c r="B168" s="63"/>
+      <c r="C168" s="96"/>
+      <c r="D168" s="72" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" ht="45">
+      <c r="A169">
+        <v>25</v>
+      </c>
+      <c r="B169" s="63"/>
+      <c r="C169" s="96"/>
+      <c r="D169" s="72" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" ht="45.75" thickBot="1">
+      <c r="A170">
+        <v>26</v>
+      </c>
+      <c r="B170" s="63"/>
+      <c r="C170" s="97"/>
+      <c r="D170" s="72" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" ht="90">
+      <c r="A171">
+        <v>27</v>
+      </c>
+      <c r="B171" s="63"/>
+      <c r="C171" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D171" s="25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" ht="60">
+      <c r="A172">
+        <v>28</v>
+      </c>
+      <c r="B172" s="63"/>
+      <c r="C172" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D172" s="25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" ht="45.75" thickBot="1">
+      <c r="A173">
+        <v>29</v>
+      </c>
+      <c r="B173" s="64"/>
+      <c r="C173" s="26"/>
+      <c r="D173" s="27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" ht="105.75" thickBot="1">
+      <c r="A174">
+        <v>30</v>
+      </c>
+      <c r="B174" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C174" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="D174" s="32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" ht="27">
+      <c r="A175">
+        <v>31</v>
+      </c>
+      <c r="B175" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C175" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="D175" s="24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
+      <c r="A176">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="228">
+    <mergeCell ref="I162:I166"/>
+    <mergeCell ref="J162:J166"/>
+    <mergeCell ref="K162:K166"/>
+    <mergeCell ref="C30:C59"/>
+    <mergeCell ref="I150:I156"/>
+    <mergeCell ref="J150:J156"/>
+    <mergeCell ref="K150:K154"/>
+    <mergeCell ref="A157:A161"/>
+    <mergeCell ref="D157:D161"/>
+    <mergeCell ref="E157:E161"/>
+    <mergeCell ref="F157:F161"/>
+    <mergeCell ref="G157:G161"/>
+    <mergeCell ref="I157:I161"/>
+    <mergeCell ref="J157:J161"/>
+    <mergeCell ref="K157:K161"/>
+    <mergeCell ref="A144:A149"/>
+    <mergeCell ref="D144:D149"/>
+    <mergeCell ref="E144:E149"/>
+    <mergeCell ref="F144:F149"/>
+    <mergeCell ref="G144:G149"/>
+    <mergeCell ref="I144:I149"/>
+    <mergeCell ref="J144:J149"/>
+    <mergeCell ref="K144:K149"/>
+    <mergeCell ref="K138:K143"/>
+    <mergeCell ref="J138:J143"/>
+    <mergeCell ref="I138:I143"/>
+    <mergeCell ref="G138:G143"/>
+    <mergeCell ref="F138:F143"/>
+    <mergeCell ref="E138:E143"/>
+    <mergeCell ref="D138:D143"/>
+    <mergeCell ref="A138:A143"/>
+    <mergeCell ref="K131:K135"/>
+    <mergeCell ref="I131:I137"/>
+    <mergeCell ref="J131:J137"/>
+    <mergeCell ref="G131:G137"/>
+    <mergeCell ref="F131:F137"/>
+    <mergeCell ref="E131:E137"/>
+    <mergeCell ref="A150:A156"/>
+    <mergeCell ref="D150:D156"/>
+    <mergeCell ref="E150:E156"/>
+    <mergeCell ref="F150:F156"/>
+    <mergeCell ref="G150:G156"/>
+    <mergeCell ref="A162:A166"/>
+    <mergeCell ref="D162:D166"/>
+    <mergeCell ref="E162:E166"/>
+    <mergeCell ref="F162:F166"/>
+    <mergeCell ref="G162:G166"/>
+    <mergeCell ref="I126:I130"/>
+    <mergeCell ref="J126:J130"/>
+    <mergeCell ref="K126:K130"/>
+    <mergeCell ref="D131:D137"/>
+    <mergeCell ref="A131:A137"/>
+    <mergeCell ref="A126:A130"/>
+    <mergeCell ref="D126:D130"/>
+    <mergeCell ref="E126:E130"/>
+    <mergeCell ref="F126:F130"/>
+    <mergeCell ref="G126:G130"/>
+    <mergeCell ref="I110:I117"/>
+    <mergeCell ref="J110:J117"/>
+    <mergeCell ref="K110:K117"/>
+    <mergeCell ref="A118:A125"/>
+    <mergeCell ref="D118:D125"/>
+    <mergeCell ref="E118:E125"/>
+    <mergeCell ref="F118:F125"/>
+    <mergeCell ref="G118:G125"/>
+    <mergeCell ref="I118:I125"/>
+    <mergeCell ref="J118:J125"/>
+    <mergeCell ref="K118:K125"/>
+    <mergeCell ref="A110:A117"/>
+    <mergeCell ref="D110:D117"/>
+    <mergeCell ref="E110:E117"/>
+    <mergeCell ref="F110:F117"/>
+    <mergeCell ref="G110:G117"/>
+    <mergeCell ref="I93:I101"/>
+    <mergeCell ref="J93:J101"/>
+    <mergeCell ref="K93:K101"/>
+    <mergeCell ref="A102:A109"/>
+    <mergeCell ref="D102:D109"/>
+    <mergeCell ref="E102:E109"/>
+    <mergeCell ref="F102:F109"/>
+    <mergeCell ref="G102:G109"/>
+    <mergeCell ref="I102:I109"/>
+    <mergeCell ref="J102:J109"/>
+    <mergeCell ref="K102:K109"/>
+    <mergeCell ref="A93:A101"/>
+    <mergeCell ref="D93:D101"/>
+    <mergeCell ref="E93:E101"/>
+    <mergeCell ref="F93:F101"/>
+    <mergeCell ref="G93:G101"/>
+    <mergeCell ref="I77:I84"/>
+    <mergeCell ref="J77:J84"/>
+    <mergeCell ref="K77:K84"/>
+    <mergeCell ref="A85:A92"/>
+    <mergeCell ref="D85:D92"/>
+    <mergeCell ref="E85:E92"/>
+    <mergeCell ref="F85:F92"/>
+    <mergeCell ref="G85:G92"/>
+    <mergeCell ref="I85:I92"/>
+    <mergeCell ref="J85:J92"/>
+    <mergeCell ref="K85:K92"/>
+    <mergeCell ref="A77:A84"/>
+    <mergeCell ref="D77:D84"/>
+    <mergeCell ref="E77:E84"/>
+    <mergeCell ref="F77:F84"/>
+    <mergeCell ref="G77:G84"/>
+    <mergeCell ref="J69:J76"/>
+    <mergeCell ref="K69:K76"/>
+    <mergeCell ref="A69:A76"/>
+    <mergeCell ref="D69:D76"/>
+    <mergeCell ref="E69:E76"/>
+    <mergeCell ref="F69:F76"/>
+    <mergeCell ref="G69:G76"/>
+    <mergeCell ref="I69:I76"/>
+    <mergeCell ref="J60:J68"/>
+    <mergeCell ref="K60:K68"/>
+    <mergeCell ref="G60:G68"/>
+    <mergeCell ref="F60:F68"/>
+    <mergeCell ref="E60:E68"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="I60:I68"/>
+    <mergeCell ref="D60:D68"/>
+    <mergeCell ref="A60:A68"/>
+    <mergeCell ref="K52:K55"/>
+    <mergeCell ref="D52:D55"/>
+    <mergeCell ref="E56:E59"/>
+    <mergeCell ref="F56:F59"/>
+    <mergeCell ref="G56:G59"/>
+    <mergeCell ref="I56:I59"/>
+    <mergeCell ref="J56:J59"/>
+    <mergeCell ref="K56:K59"/>
+    <mergeCell ref="D56:D59"/>
+    <mergeCell ref="E52:E55"/>
+    <mergeCell ref="F52:F55"/>
+    <mergeCell ref="G52:G55"/>
+    <mergeCell ref="I52:I55"/>
+    <mergeCell ref="J52:J55"/>
+    <mergeCell ref="I48:I51"/>
+    <mergeCell ref="J48:J51"/>
+    <mergeCell ref="K48:K51"/>
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="E48:E51"/>
+    <mergeCell ref="F48:F51"/>
+    <mergeCell ref="G48:G51"/>
+    <mergeCell ref="K40:K43"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="E44:E47"/>
+    <mergeCell ref="F44:F47"/>
+    <mergeCell ref="G44:G47"/>
+    <mergeCell ref="I44:I47"/>
+    <mergeCell ref="J44:J47"/>
+    <mergeCell ref="K44:K47"/>
+    <mergeCell ref="D44:D47"/>
+    <mergeCell ref="E40:E43"/>
+    <mergeCell ref="F40:F43"/>
+    <mergeCell ref="G40:G43"/>
+    <mergeCell ref="I40:I43"/>
+    <mergeCell ref="J40:J43"/>
+    <mergeCell ref="J30:J35"/>
+    <mergeCell ref="K30:K35"/>
+    <mergeCell ref="D30:D35"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="I36:I39"/>
+    <mergeCell ref="J36:J39"/>
+    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="F36:F39"/>
+    <mergeCell ref="E36:E39"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="K36:K39"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="C19:C29"/>
+    <mergeCell ref="K27:K29"/>
+    <mergeCell ref="J27:J29"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="K14:K18"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="I19:I25"/>
+    <mergeCell ref="J19:J25"/>
+    <mergeCell ref="K19:K25"/>
+    <mergeCell ref="G19:G25"/>
+    <mergeCell ref="F19:F25"/>
+    <mergeCell ref="E19:E25"/>
+    <mergeCell ref="D19:D25"/>
+    <mergeCell ref="A19:A25"/>
+    <mergeCell ref="K10:K13"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="C2:C18"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="J6:J9"/>
+    <mergeCell ref="K6:K9"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="K2:K5"/>
+    <mergeCell ref="B2:B173"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="J2:J5"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="J10:J13"/>
+    <mergeCell ref="J14:J18"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E30:E35"/>
+    <mergeCell ref="F30:F35"/>
+    <mergeCell ref="G30:G35"/>
+    <mergeCell ref="I30:I35"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.85546875" customWidth="1"/>
     <col min="2" max="2" width="25.28515625" customWidth="1"/>
     <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" customWidth="1"/>
+    <col min="4" max="5" width="23.7109375" customWidth="1"/>
+    <col min="6" max="6" width="31.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="27" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9">
+    <row r="2" spans="1:10" ht="51.75" customHeight="1" thickBot="1">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-    </row>
-    <row r="3" spans="1:8" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-    </row>
-    <row r="4" spans="1:8" ht="115.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-    </row>
-    <row r="5" spans="1:8" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
+      <c r="G2" s="8"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+    </row>
+    <row r="3" spans="1:10" ht="39" customHeight="1" thickBot="1">
+      <c r="A3" s="14"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+    </row>
+    <row r="4" spans="1:10" ht="115.5" customHeight="1" thickBot="1">
+      <c r="A4" s="15"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+    </row>
+    <row r="5" spans="1:10" ht="64.5" customHeight="1" thickBot="1">
+      <c r="A5" s="13">
         <v>2</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-    </row>
-    <row r="6" spans="1:8" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-    </row>
-    <row r="7" spans="1:8" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
+      <c r="G5" s="8"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+    </row>
+    <row r="6" spans="1:10" ht="50.25" customHeight="1" thickBot="1">
+      <c r="A6" s="14"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+    </row>
+    <row r="7" spans="1:10" ht="33.75" customHeight="1" thickBot="1">
+      <c r="A7" s="15"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A8" s="13">
         <v>3</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
+      <c r="G8" s="8"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A9" s="14"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A10" s="15"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A11" s="13">
         <v>4</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9">
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A12" s="14"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A13" s="15"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A14" s="13">
         <v>5</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-    </row>
-    <row r="17" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="9">
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A15" s="14"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A16" s="15"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+    </row>
+    <row r="17" spans="1:10" ht="28.5" customHeight="1" thickBot="1">
+      <c r="A17" s="13">
         <v>6</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-    </row>
-    <row r="18" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-    </row>
-    <row r="19" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9">
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+    </row>
+    <row r="18" spans="1:10" ht="28.5" customHeight="1" thickBot="1">
+      <c r="A18" s="14"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+    </row>
+    <row r="19" spans="1:10" ht="34.5" customHeight="1" thickBot="1">
+      <c r="A19" s="15"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A20" s="13">
         <v>7</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="11"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9">
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A21" s="14"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A22" s="15"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A23" s="13">
         <v>8</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="10"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="11"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="9">
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A24" s="14"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A25" s="15"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A26" s="13">
         <v>9</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="10"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="11"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="9">
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A27" s="14"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A28" s="15"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A29" s="13">
         <v>10</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="10"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-    </row>
-    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="11"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A30" s="14"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A31" s="15"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="70">
+    <mergeCell ref="J26:J28"/>
     <mergeCell ref="A29:A31"/>
+    <mergeCell ref="B29:B31"/>
     <mergeCell ref="C29:C31"/>
-    <mergeCell ref="D29:D31"/>
     <mergeCell ref="F29:F31"/>
-    <mergeCell ref="G29:G31"/>
     <mergeCell ref="H29:H31"/>
-    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="I29:I31"/>
+    <mergeCell ref="J29:J31"/>
     <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B26:B28"/>
     <mergeCell ref="C26:C28"/>
-    <mergeCell ref="D26:D28"/>
     <mergeCell ref="F26:F28"/>
-    <mergeCell ref="G26:G28"/>
     <mergeCell ref="H26:H28"/>
-    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="I26:I28"/>
+    <mergeCell ref="J20:J22"/>
     <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
     <mergeCell ref="C23:C25"/>
-    <mergeCell ref="D23:D25"/>
     <mergeCell ref="F23:F25"/>
-    <mergeCell ref="G23:G25"/>
     <mergeCell ref="H23:H25"/>
-    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="J23:J25"/>
     <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
     <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D20:D22"/>
     <mergeCell ref="F20:F22"/>
-    <mergeCell ref="G20:G22"/>
     <mergeCell ref="H20:H22"/>
-    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="J14:J16"/>
     <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
     <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
     <mergeCell ref="F17:F19"/>
-    <mergeCell ref="G17:G19"/>
     <mergeCell ref="H17:H19"/>
-    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="J17:J19"/>
     <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
     <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
     <mergeCell ref="F14:F16"/>
-    <mergeCell ref="G14:G16"/>
     <mergeCell ref="H14:H16"/>
-    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="J8:J10"/>
     <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
     <mergeCell ref="F11:F13"/>
-    <mergeCell ref="G11:G13"/>
     <mergeCell ref="H11:H13"/>
-    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="J11:J13"/>
     <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
     <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:D10"/>
     <mergeCell ref="F8:F10"/>
-    <mergeCell ref="G8:G10"/>
     <mergeCell ref="H8:H10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="F2:F4"/>
     <mergeCell ref="H2:H4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="I2:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
